--- a/output/fit_clients/fit_round_261.xlsx
+++ b/output/fit_clients/fit_round_261.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1794843963.798347</v>
+        <v>1590627027.276089</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0875197671752159</v>
+        <v>0.08694217467718986</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03528680244256138</v>
+        <v>0.04549411795467706</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>897421949.9230127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1675456725.064627</v>
+        <v>2437297844.265365</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1183259475061668</v>
+        <v>0.1316971369822745</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04290123588016408</v>
+        <v>0.03825172934177679</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>837728352.3246229</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4553812157.374851</v>
+        <v>4170512219.534218</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1372488765656279</v>
+        <v>0.1665409224829796</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0303182304893179</v>
+        <v>0.02954831523041195</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>94</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2276906132.0878</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3023422678.761052</v>
+        <v>2764886831.002514</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09914769346704196</v>
+        <v>0.08512004405407823</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0341930096564627</v>
+        <v>0.04778018793606891</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>100</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1511711407.682767</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2842880739.329195</v>
+        <v>2225590231.692965</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1275681338008663</v>
+        <v>0.1175455797046389</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05328069429880517</v>
+        <v>0.0424526864235482</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>42</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1421440308.030722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2301334717.871424</v>
+        <v>2423096857.120004</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06211891710231061</v>
+        <v>0.06301931105563</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03406490187187805</v>
+        <v>0.04842155320550167</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>82</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1150667391.051067</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2871600390.213935</v>
+        <v>3423285402.522062</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2093105949010298</v>
+        <v>0.1870599067117272</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03029452232155596</v>
+        <v>0.03145634911078896</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>83</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1435800239.488669</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2029917291.635736</v>
+        <v>1928082726.196005</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1425725055109447</v>
+        <v>0.1614720115364897</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02493289228362373</v>
+        <v>0.02604684590348474</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1014958668.275069</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4512932323.687214</v>
+        <v>4041288881.55616</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2037762878172868</v>
+        <v>0.1778195368407057</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04797256118722292</v>
+        <v>0.03341718479300655</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>110</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2256466223.416955</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2775202376.848584</v>
+        <v>3932516777.654103</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1489674268860187</v>
+        <v>0.1213829917638602</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03528585997632627</v>
+        <v>0.04666584282641636</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>108</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1387601115.655556</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3270299602.116811</v>
+        <v>2420118051.900284</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1440978891302478</v>
+        <v>0.1840740313271717</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04506990862712201</v>
+        <v>0.04570977478657309</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>87</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1635149843.832747</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4156217330.310622</v>
+        <v>4942732465.429179</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09089223747193198</v>
+        <v>0.08958627322064286</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02354479088153881</v>
+        <v>0.02233512261588652</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>87</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2078108712.145072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3858416953.686635</v>
+        <v>2748545513.139195</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1340973712785359</v>
+        <v>0.1458549134552917</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04324664031452817</v>
+        <v>0.03356116394192535</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>84</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1929208449.123176</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1125744466.320625</v>
+        <v>1289792024.625686</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1063245706074651</v>
+        <v>0.06630074211450691</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03464654318200754</v>
+        <v>0.04211505584666379</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>562872233.804319</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2177882440.122049</v>
+        <v>2321459657.040432</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08953816677064023</v>
+        <v>0.07294418000997327</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0449942347788523</v>
+        <v>0.03811402666700141</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>48</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1088941279.651713</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3923515052.958251</v>
+        <v>4226515685.224186</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1487264167268769</v>
+        <v>0.1135866585531094</v>
       </c>
       <c r="G17" t="n">
-        <v>0.032718534892563</v>
+        <v>0.05104992666399138</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>76</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1961757564.875587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3971969052.638937</v>
+        <v>3876879758.365782</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1606585660600223</v>
+        <v>0.1153642479630313</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02172500649526867</v>
+        <v>0.03329375786124163</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>85</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1985984486.178766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1290873742.442563</v>
+        <v>1297879189.434799</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1478291560675307</v>
+        <v>0.1162593258287948</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02601225024689245</v>
+        <v>0.02250801692917805</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>645436971.2348351</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1950804491.105368</v>
+        <v>2202381837.837831</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1377410230774124</v>
+        <v>0.1425739086480779</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01976506799297252</v>
+        <v>0.02964702717050944</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>39</v>
-      </c>
-      <c r="J20" t="n">
-        <v>975402277.1312689</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2351082328.077843</v>
+        <v>2041922295.646494</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09735354583874295</v>
+        <v>0.09765816246073117</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04210452058370437</v>
+        <v>0.03551186483302996</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>20</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1175541166.402942</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2626205469.453904</v>
+        <v>3540504883.359693</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1067030942482817</v>
+        <v>0.08952523198643393</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03587556007003648</v>
+        <v>0.0515908298843114</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>72</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1313102818.634501</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1346599646.223746</v>
+        <v>1398520726.215361</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1428445688593958</v>
+        <v>0.1846417160070307</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03369464484879742</v>
+        <v>0.04303942912026063</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>673299834.8944888</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3008112333.393589</v>
+        <v>2965139220.70165</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1076842902980447</v>
+        <v>0.1438205584177338</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03270893346264101</v>
+        <v>0.0322118054132694</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>76</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1504056201.389648</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1072635702.556215</v>
+        <v>983338298.7364682</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1019817960343854</v>
+        <v>0.08291666015337759</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02453588392974165</v>
+        <v>0.01978687208829534</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>536317898.5492349</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1174402021.093274</v>
+        <v>1253532329.045381</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08507716526693015</v>
+        <v>0.09078312043181565</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0239520294507008</v>
+        <v>0.03366827990616433</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>587201025.2932171</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3376197277.095687</v>
+        <v>4674048238.370329</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1393254009227437</v>
+        <v>0.1538557284310283</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01737367033111248</v>
+        <v>0.01942919415565664</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>65</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1688098679.663766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3444329445.328828</v>
+        <v>3059424180.202366</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09223510483469848</v>
+        <v>0.0940929150424827</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04199060725525767</v>
+        <v>0.04162566590444042</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>86</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1722164772.444736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3641327180.847998</v>
+        <v>5618732185.91472</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1392439682875699</v>
+        <v>0.1323364461077947</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03360473447367578</v>
+        <v>0.03629285553449456</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>115</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1820663632.089774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2072170685.632837</v>
+        <v>2293675924.339108</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1050161342425294</v>
+        <v>0.1065455745805129</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0303427261455072</v>
+        <v>0.02615637193149624</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1036085388.490286</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1497161195.089977</v>
+        <v>1052385403.060581</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1037982024531184</v>
+        <v>0.07850680119730785</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05067292291753396</v>
+        <v>0.04184243719883375</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>748580479.0585492</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1558936746.878547</v>
+        <v>1812734541.923921</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1155917662650802</v>
+        <v>0.08013864857445321</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0374660015969996</v>
+        <v>0.02790986224996615</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>779468453.9994563</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3046949984.53478</v>
+        <v>1939156320.42593</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2068697239431231</v>
+        <v>0.1573757597951389</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04059700708484514</v>
+        <v>0.04002860590772793</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>79</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1523474983.9147</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1225593256.784148</v>
+        <v>1007110893.523266</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08767953103777397</v>
+        <v>0.08399880391059707</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01890454201037106</v>
+        <v>0.02830391025860177</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>612796629.2149005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>957939477.1916771</v>
+        <v>1314812679.519194</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07166543064482975</v>
+        <v>0.0991575797699316</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03847673115606733</v>
+        <v>0.03421374039525341</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>478969766.4074706</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2866991585.104836</v>
+        <v>3072640588.055675</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1698237602094421</v>
+        <v>0.1591054075733631</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01975366570707205</v>
+        <v>0.01890529518114062</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>64</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1433495785.136168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2658764814.190792</v>
+        <v>2389751756.688721</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1000094624706928</v>
+        <v>0.08046491044662245</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03974151530153586</v>
+        <v>0.02905887902529787</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>67</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1329382525.024836</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1825173748.623563</v>
+        <v>1799274646.195286</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09686777418595688</v>
+        <v>0.1191155911752718</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03810923928208289</v>
+        <v>0.0385858601771204</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>912586877.6271454</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2152679225.361126</v>
+        <v>1989934788.47459</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1344194472538396</v>
+        <v>0.1912907589700697</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0241149412772808</v>
+        <v>0.02366414948681658</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1076339584.060549</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1382573876.615525</v>
+        <v>1730105976.620866</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1112477823292808</v>
+        <v>0.1079737092856705</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0392482043563082</v>
+        <v>0.04941709729635353</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>691286933.900849</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2443996793.186188</v>
+        <v>2096076298.902361</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1208489262166845</v>
+        <v>0.1022132156887171</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02933931923675809</v>
+        <v>0.04730965464152366</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>62</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1221998427.393706</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3358956274.08796</v>
+        <v>3581290395.525707</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1258247275874431</v>
+        <v>0.100808158632312</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03399571125178866</v>
+        <v>0.04316509513518488</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1679478122.180479</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2060630343.63933</v>
+        <v>3031716049.957452</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1659757541929005</v>
+        <v>0.183906886314317</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02377264291770343</v>
+        <v>0.02507660583058632</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>94</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1030315264.65581</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2310915517.748876</v>
+        <v>1915122216.777915</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06365115104331807</v>
+        <v>0.0843745410935562</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03441851711072286</v>
+        <v>0.03331343016654422</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1155457927.247273</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1938881277.106885</v>
+        <v>1870601250.327567</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1582483726335208</v>
+        <v>0.1577532174393975</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04790415710949065</v>
+        <v>0.04449645372400723</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>969440623.23157</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4463524233.443283</v>
+        <v>5296177200.536294</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1314767679417271</v>
+        <v>0.1480225822876209</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03688570326859668</v>
+        <v>0.05932821338949326</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>93</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2231762112.785587</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4506746005.455566</v>
+        <v>3481015282.079834</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1261293445123575</v>
+        <v>0.1340825081886458</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05050588415532692</v>
+        <v>0.03641818305384112</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>70</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2253373030.557625</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3296569968.024463</v>
+        <v>4432592877.167159</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09939694560735825</v>
+        <v>0.06936640510385689</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02911523458321299</v>
+        <v>0.03353373204483428</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>89</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1648285059.261992</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1503864554.494894</v>
+        <v>1694287572.117938</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1235297758423663</v>
+        <v>0.1434537873949688</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04148643211582766</v>
+        <v>0.03393324068745453</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>751932308.6733216</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3793935044.663216</v>
+        <v>3304782081.968862</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1089567967894696</v>
+        <v>0.1765230596898025</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04449078702904065</v>
+        <v>0.04388097847822744</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>89</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1896967525.690952</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1507508493.366065</v>
+        <v>1223553479.357015</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1784591172725354</v>
+        <v>0.1423167105168633</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03676460505927752</v>
+        <v>0.04863470104865833</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>753754248.3915482</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3839948278.147552</v>
+        <v>3200871653.302731</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1328153107970562</v>
+        <v>0.1043313422981024</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05801808366628059</v>
+        <v>0.05808388543573648</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>107</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1919974204.965971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3805460278.44828</v>
+        <v>2717219247.115915</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1247124703713557</v>
+        <v>0.1409846042203789</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02434222498985134</v>
+        <v>0.02204885047390592</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>75</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1902730116.03838</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4286399639.019016</v>
+        <v>3940362834.46318</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1593614954330241</v>
+        <v>0.1353131288754895</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04352976978191001</v>
+        <v>0.0453135148963682</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>86</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2143199906.073375</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4905323360.08492</v>
+        <v>3211186530.666935</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1781892737851778</v>
+        <v>0.1681233539094722</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02354085948144826</v>
+        <v>0.02559664936175824</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2452661694.92573</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1337981724.972161</v>
+        <v>1714325210.818192</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1065861358112134</v>
+        <v>0.1633941758750395</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03995680408668693</v>
+        <v>0.04864259196986502</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>668990928.7637267</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4405378295.156092</v>
+        <v>4115797759.080478</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1444475542943049</v>
+        <v>0.1191164197178546</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02044324179426916</v>
+        <v>0.02682128204009129</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>83</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2202689269.979969</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1171692732.215268</v>
+        <v>1402702160.410652</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1617056502670366</v>
+        <v>0.1620593420863378</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03497358672300366</v>
+        <v>0.03630677328100131</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>585846427.18957</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3827900676.856864</v>
+        <v>5320822069.100958</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1044562220137618</v>
+        <v>0.09802884473093963</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03256507998285155</v>
+        <v>0.04483596994728688</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>72</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1913950322.655362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3191551315.781228</v>
+        <v>2726356134.054757</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1477374530868589</v>
+        <v>0.1837444110642298</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02513326614476345</v>
+        <v>0.02061221136469428</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>81</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1595775748.328487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2300351352.937383</v>
+        <v>2605072425.550762</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1284736905824911</v>
+        <v>0.1527077583075711</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02933861767920245</v>
+        <v>0.0206310835262031</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>90</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1150175722.903625</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1485705383.442105</v>
+        <v>1843710231.518654</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1656133762408208</v>
+        <v>0.1374284442459726</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03628643950662073</v>
+        <v>0.04401927589649483</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>742852672.6252486</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5051514607.370259</v>
+        <v>5533269311.184115</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06915780095772879</v>
+        <v>0.06695554939086142</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03478490215511223</v>
+        <v>0.03852476624612464</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>74</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2525757319.130446</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4667983775.583906</v>
+        <v>4671459141.689787</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1848005920355589</v>
+        <v>0.1842397909307698</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02302055140015007</v>
+        <v>0.03379596185143666</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>81</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2333991970.63037</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6014828130.297496</v>
+        <v>4007687449.554812</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1501608413368478</v>
+        <v>0.1333337761818719</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02936090031423444</v>
+        <v>0.0270934886780982</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>94</v>
-      </c>
-      <c r="J65" t="n">
-        <v>3007413963.49658</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4282184403.236574</v>
+        <v>4935547309.084095</v>
       </c>
       <c r="F66" t="n">
-        <v>0.150834213560196</v>
+        <v>0.1231478181341662</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04168139324333376</v>
+        <v>0.04856132410475281</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>76</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2141092190.34897</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2583246478.974851</v>
+        <v>3048238805.760633</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09358871078922727</v>
+        <v>0.103005290039978</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04077023127390089</v>
+        <v>0.04601121027357413</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>84</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1291623293.050256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5716645357.017448</v>
+        <v>5053653853.766796</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1133290930869767</v>
+        <v>0.1401234409411197</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03665756992529475</v>
+        <v>0.03575461153510336</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>87</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2858322778.3162</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1909794330.360518</v>
+        <v>1996851391.690183</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1837214936795877</v>
+        <v>0.1319760502399525</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05939612062706843</v>
+        <v>0.05521607368354891</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>954897158.4517918</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3564944337.157602</v>
+        <v>2701075131.767834</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0648126402018416</v>
+        <v>0.1009416703068756</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03028663199709345</v>
+        <v>0.04809200356937671</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>74</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1782472182.400002</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5136207441.708175</v>
+        <v>4619754103.0456</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1170869311703788</v>
+        <v>0.1610105056672229</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02294922887740961</v>
+        <v>0.02325427243658061</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>95</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2568103836.72471</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1819823535.150178</v>
+        <v>1660648829.317778</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0720687115785372</v>
+        <v>0.1028658748175235</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03595490710432524</v>
+        <v>0.04972786467692825</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>909911742.9920496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3575369943.151183</v>
+        <v>2729869157.903607</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07518796861771826</v>
+        <v>0.09272267084987945</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04761761683158578</v>
+        <v>0.04459274612394706</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>101</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1787684914.863184</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3512404780.394442</v>
+        <v>3843260976.813349</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1617131689628904</v>
+        <v>0.1673409235024787</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03221255693895442</v>
+        <v>0.02687541108489763</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>89</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1756202411.314061</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2015499868.231288</v>
+        <v>2334830974.157684</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1119596973747387</v>
+        <v>0.1345370595582377</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03251735276972251</v>
+        <v>0.02794771874264189</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1007749896.794022</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4192840231.408239</v>
+        <v>3638168642.304127</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08122152777358947</v>
+        <v>0.1007329512758088</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03388901997322927</v>
+        <v>0.03263738277056222</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2096420108.516897</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1629353655.177706</v>
+        <v>1706371619.937303</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1648450301517034</v>
+        <v>0.1764393484821009</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03105235690423262</v>
+        <v>0.02484468143795156</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>814676834.3459877</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3408918299.416964</v>
+        <v>4761436473.78793</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09761613911060506</v>
+        <v>0.1293203767565217</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04007878892396147</v>
+        <v>0.04901214165000838</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>91</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1704459157.708019</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1289709993.951799</v>
+        <v>1230183782.385695</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1527759241662821</v>
+        <v>0.1536018693257663</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02906241666071334</v>
+        <v>0.03999621227592378</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>644854994.3679439</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4548364978.729531</v>
+        <v>4935730123.657799</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1117519255682614</v>
+        <v>0.09627658082397758</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02804271649306298</v>
+        <v>0.03679402674332445</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>54</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2274182516.096116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4081583009.595361</v>
+        <v>3228357301.30293</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1213205744482799</v>
+        <v>0.1244756865559491</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03019833747117678</v>
+        <v>0.03187842172568155</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>58</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2040791471.045745</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5079416380.358587</v>
+        <v>4378879280.359097</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1501187757489496</v>
+        <v>0.1623884191888368</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02563631044208352</v>
+        <v>0.01968784633882069</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>92</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2539708169.698728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1692648368.950229</v>
+        <v>2367630006.1983</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1108044911478458</v>
+        <v>0.1058754560102677</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03487845221864821</v>
+        <v>0.03096901637510805</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>846324131.4900858</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2345975184.97107</v>
+        <v>1732961548.269597</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08050740880214305</v>
+        <v>0.09217459676178702</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03688327156346205</v>
+        <v>0.03543950858772425</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1172987546.86263</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2276387858.413474</v>
+        <v>3421659483.79922</v>
       </c>
       <c r="F85" t="n">
-        <v>0.145865610124176</v>
+        <v>0.1467632567330882</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04434030548441577</v>
+        <v>0.05623002690951242</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>99</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1138193909.456731</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1718402705.551764</v>
+        <v>2341246403.986705</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1081128315892312</v>
+        <v>0.1064151441862882</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01827788017681935</v>
+        <v>0.01721783637286546</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>34</v>
-      </c>
-      <c r="J86" t="n">
-        <v>859201341.2359831</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1217759573.816919</v>
+        <v>1305291453.000251</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1420318633244535</v>
+        <v>0.1802267699068376</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02762625660874126</v>
+        <v>0.03909897986726042</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>608879847.0335083</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2879753498.876248</v>
+        <v>2936836466.189909</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1151388918620167</v>
+        <v>0.1778175313312027</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02539572226151056</v>
+        <v>0.0297013556474263</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>102</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1439876768.004488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2512826249.774139</v>
+        <v>2954185109.795111</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1560241751514414</v>
+        <v>0.1123009816862136</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04112614446409259</v>
+        <v>0.03090480007107459</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>89</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1256413198.696574</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1424866813.847321</v>
+        <v>1893333520.83471</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1236815548050533</v>
+        <v>0.1044390614413662</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04309157799941016</v>
+        <v>0.04172056551910614</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>712433371.9243711</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2066223738.862423</v>
+        <v>1736003584.585506</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1190597517182846</v>
+        <v>0.1509907621945979</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04322044508684572</v>
+        <v>0.03736892230585303</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1033111832.847088</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1872999841.02823</v>
+        <v>2619665739.524072</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0840583476290309</v>
+        <v>0.08282893800236295</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03679642559710452</v>
+        <v>0.03436880537656165</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>66</v>
-      </c>
-      <c r="J92" t="n">
-        <v>936499857.0738502</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5033338453.409501</v>
+        <v>5013449707.203474</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09527458192119044</v>
+        <v>0.09710347523055561</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03486444154429801</v>
+        <v>0.04979822460510514</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>81</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2516669160.498847</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1550699063.919757</v>
+        <v>2357318972.243796</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1354264311536692</v>
+        <v>0.167142660424662</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03024475432708789</v>
+        <v>0.03251709136963035</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>775349471.8063433</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2760655482.252071</v>
+        <v>2447981818.595703</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09280257499031147</v>
+        <v>0.106497701838224</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04711796710550646</v>
+        <v>0.0403377207236713</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>63</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1380327758.242879</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1775332896.784839</v>
+        <v>1979405982.64382</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1018082527643663</v>
+        <v>0.1202593685053708</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03988858597766323</v>
+        <v>0.03023174883274961</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>887666459.3491396</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3528211785.997159</v>
+        <v>4490282784.012061</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1392083626562758</v>
+        <v>0.1426405562034331</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01890848613033279</v>
+        <v>0.02239838833223535</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>84</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1764105911.435251</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3785303101.030925</v>
+        <v>2886002557.749313</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08974769794594478</v>
+        <v>0.1177535141258136</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02505548120146</v>
+        <v>0.03250415035244961</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>70</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1892651588.495684</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2681280700.653139</v>
+        <v>2430528469.658352</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09150735874342529</v>
+        <v>0.1038459294748205</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02615158615581597</v>
+        <v>0.02164840236371516</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>82</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1340640313.154555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3128995060.167964</v>
+        <v>4674303786.233397</v>
       </c>
       <c r="F100" t="n">
-        <v>0.164247148464092</v>
+        <v>0.1404395868608009</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01775588855396747</v>
+        <v>0.0254311941646449</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>79</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1564497531.225888</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2788452681.564159</v>
+        <v>2671407238.493161</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1339965762139815</v>
+        <v>0.1668611765705708</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05170931696506576</v>
+        <v>0.05188917327694416</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>105</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1394226401.863873</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_261.xlsx
+++ b/output/fit_clients/fit_round_261.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1590627027.276089</v>
+        <v>2371774638.021445</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08694217467718986</v>
+        <v>0.07232754510464384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04549411795467706</v>
+        <v>0.03690923499015893</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2437297844.265365</v>
+        <v>2412525289.518943</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1316971369822745</v>
+        <v>0.1710315946179858</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03825172934177679</v>
+        <v>0.03985162752072065</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4170512219.534218</v>
+        <v>4208111698.991456</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1665409224829796</v>
+        <v>0.1190731431971723</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02954831523041195</v>
+        <v>0.03081858876113476</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2764886831.002514</v>
+        <v>4221173192.357876</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08512004405407823</v>
+        <v>0.0988240973761518</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04778018793606891</v>
+        <v>0.04266336052608095</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2225590231.692965</v>
+        <v>2297865947.830363</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1175455797046389</v>
+        <v>0.1139838194804902</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0424526864235482</v>
+        <v>0.03509361363729788</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2423096857.120004</v>
+        <v>2056631162.50795</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06301931105563</v>
+        <v>0.09793499176940877</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04842155320550167</v>
+        <v>0.03384940670897103</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3423285402.522062</v>
+        <v>2547637246.155829</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1870599067117272</v>
+        <v>0.2188358109499179</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03145634911078896</v>
+        <v>0.02754144349672956</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1928082726.196005</v>
+        <v>1788176257.801696</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1614720115364897</v>
+        <v>0.1448594854489565</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02604684590348474</v>
+        <v>0.02501642315339773</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4041288881.55616</v>
+        <v>3740393092.827063</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1778195368407057</v>
+        <v>0.1889110774761407</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03341718479300655</v>
+        <v>0.03938381008965196</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3932516777.654103</v>
+        <v>3400178251.648139</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1213829917638602</v>
+        <v>0.1553679408681652</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04666584282641636</v>
+        <v>0.04131807792033779</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2420118051.900284</v>
+        <v>3317379234.083864</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1840740313271717</v>
+        <v>0.1526342416730823</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04570977478657309</v>
+        <v>0.03446982928641214</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4942732465.429179</v>
+        <v>5217721923.609971</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08958627322064286</v>
+        <v>0.07008633454264465</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02233512261588652</v>
+        <v>0.02617705733551071</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2748545513.139195</v>
+        <v>2746387941.431693</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1458549134552917</v>
+        <v>0.1240266555087988</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03356116394192535</v>
+        <v>0.04305024529184413</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1289792024.625686</v>
+        <v>1131814320.068835</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06630074211450691</v>
+        <v>0.0971088209728817</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04211505584666379</v>
+        <v>0.03153696236784205</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2321459657.040432</v>
+        <v>2269238734.527586</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07294418000997327</v>
+        <v>0.1096720506350608</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03811402666700141</v>
+        <v>0.03315845392799442</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4226515685.224186</v>
+        <v>3998819850.262668</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1135866585531094</v>
+        <v>0.1429816626747565</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05104992666399138</v>
+        <v>0.04252764390694581</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3876879758.365782</v>
+        <v>2763430446.978999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1153642479630313</v>
+        <v>0.1800983779489742</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03329375786124163</v>
+        <v>0.02698250082954252</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1297879189.434799</v>
+        <v>1350449991.496671</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1162593258287948</v>
+        <v>0.1345019719692203</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02250801692917805</v>
+        <v>0.0250474811793172</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2202381837.837831</v>
+        <v>1943169082.411285</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1425739086480779</v>
+        <v>0.1034297448179144</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02964702717050944</v>
+        <v>0.03082272947862021</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2041922295.646494</v>
+        <v>2604313356.671618</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09765816246073117</v>
+        <v>0.096735076707988</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03551186483302996</v>
+        <v>0.04113600553084918</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3540504883.359693</v>
+        <v>3503063699.182331</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08952523198643393</v>
+        <v>0.1289101052851382</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0515908298843114</v>
+        <v>0.05246887301942657</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1398520726.215361</v>
+        <v>1331328541.635777</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1846417160070307</v>
+        <v>0.1806555316061857</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04303942912026063</v>
+        <v>0.04469767880801608</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2965139220.70165</v>
+        <v>3676343431.181355</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1438205584177338</v>
+        <v>0.1109394175405992</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0322118054132694</v>
+        <v>0.03588208403715357</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>983338298.7364682</v>
+        <v>1061930862.906331</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08291666015337759</v>
+        <v>0.0913418263338957</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01978687208829534</v>
+        <v>0.02332724754192972</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1253532329.045381</v>
+        <v>1000428043.547077</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09078312043181565</v>
+        <v>0.1030264992247929</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03366827990616433</v>
+        <v>0.03159606054178518</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4674048238.370329</v>
+        <v>4180140357.293613</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1538557284310283</v>
+        <v>0.1477028456638113</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01942919415565664</v>
+        <v>0.0168120924452232</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3059424180.202366</v>
+        <v>3791213053.602157</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0940929150424827</v>
+        <v>0.09834721666921899</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04162566590444042</v>
+        <v>0.04542691654077861</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5618732185.91472</v>
+        <v>4203267331.727483</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1323364461077947</v>
+        <v>0.140866231874726</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03629285553449456</v>
+        <v>0.04398410600784738</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2293675924.339108</v>
+        <v>1576799501.238552</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1065455745805129</v>
+        <v>0.09404130165769459</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02615637193149624</v>
+        <v>0.03172340692375792</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1052385403.060581</v>
+        <v>1366994755.714345</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07850680119730785</v>
+        <v>0.1100349416450308</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04184243719883375</v>
+        <v>0.04625452520848593</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1812734541.923921</v>
+        <v>1871050781.831583</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08013864857445321</v>
+        <v>0.1061731856163487</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02790986224996615</v>
+        <v>0.02498920822341082</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1939156320.42593</v>
+        <v>2397459814.718267</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1573757597951389</v>
+        <v>0.1862891002136401</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04002860590772793</v>
+        <v>0.0507042796331713</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1007110893.523266</v>
+        <v>1203868762.706621</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08399880391059707</v>
+        <v>0.1017176304394361</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02830391025860177</v>
+        <v>0.01765860607674072</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1314812679.519194</v>
+        <v>932924483.1927844</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0991575797699316</v>
+        <v>0.07766901675175089</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03421374039525341</v>
+        <v>0.03398740217531511</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3072640588.055675</v>
+        <v>2981725566.558701</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1591054075733631</v>
+        <v>0.1138762224085547</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01890529518114062</v>
+        <v>0.01988607397314144</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2389751756.688721</v>
+        <v>2672358492.709837</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08046491044662245</v>
+        <v>0.09400443649523774</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02905887902529787</v>
+        <v>0.02969886344165363</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1799274646.195286</v>
+        <v>1754090448.16176</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1191155911752718</v>
+        <v>0.1117565927290852</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0385858601771204</v>
+        <v>0.0278565596752306</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1989934788.47459</v>
+        <v>1667758593.191967</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1912907589700697</v>
+        <v>0.1747952783478906</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02366414948681658</v>
+        <v>0.02947355622765011</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1730105976.620866</v>
+        <v>1108092983.019662</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1079737092856705</v>
+        <v>0.1094638004034731</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04941709729635353</v>
+        <v>0.05032284873661003</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2096076298.902361</v>
+        <v>1782467328.42446</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1022132156887171</v>
+        <v>0.1393399922988428</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04730965464152366</v>
+        <v>0.02956507826269223</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3581290395.525707</v>
+        <v>3036687926.097808</v>
       </c>
       <c r="F42" t="n">
-        <v>0.100808158632312</v>
+        <v>0.1028215062721697</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04316509513518488</v>
+        <v>0.04455549439455846</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3031716049.957452</v>
+        <v>2253369173.447757</v>
       </c>
       <c r="F43" t="n">
-        <v>0.183906886314317</v>
+        <v>0.1900611271031626</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02507660583058632</v>
+        <v>0.01834366460075314</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1915122216.777915</v>
+        <v>1913875046.353441</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0843745410935562</v>
+        <v>0.08440622810833594</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03331343016654422</v>
+        <v>0.02606386156497871</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1870601250.327567</v>
+        <v>2196600022.775909</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1577532174393975</v>
+        <v>0.1189865789166671</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04449645372400723</v>
+        <v>0.0515950371778203</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5296177200.536294</v>
+        <v>5186736031.737995</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1480225822876209</v>
+        <v>0.1582101858312341</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05932821338949326</v>
+        <v>0.05932877813858155</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3481015282.079834</v>
+        <v>4674379925.083158</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1340825081886458</v>
+        <v>0.176960332214594</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03641818305384112</v>
+        <v>0.05202938092283185</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4432592877.167159</v>
+        <v>4340928847.47958</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06936640510385689</v>
+        <v>0.08499954849753351</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03353373204483428</v>
+        <v>0.0290318670946196</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1694287572.117938</v>
+        <v>1356211351.269477</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1434537873949688</v>
+        <v>0.1623990779151115</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03393324068745453</v>
+        <v>0.028101215085391</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3304782081.968862</v>
+        <v>2896967881.15412</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1765230596898025</v>
+        <v>0.1380137748102193</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04388097847822744</v>
+        <v>0.05349255226986371</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1223553479.357015</v>
+        <v>1374206211.101929</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1423167105168633</v>
+        <v>0.1336235651487161</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04863470104865833</v>
+        <v>0.04635660165647303</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3200871653.302731</v>
+        <v>5055734641.92628</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1043313422981024</v>
+        <v>0.1099482593150822</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05808388543573648</v>
+        <v>0.05196107208431046</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2717219247.115915</v>
+        <v>3048937233.871764</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1409846042203789</v>
+        <v>0.151582657802089</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02204885047390592</v>
+        <v>0.03532481048463185</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3940362834.46318</v>
+        <v>4401985960.655725</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1353131288754895</v>
+        <v>0.1178665345774799</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0453135148963682</v>
+        <v>0.04756926612961705</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3211186530.666935</v>
+        <v>3214517164.149526</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1681233539094722</v>
+        <v>0.1623388180561641</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02559664936175824</v>
+        <v>0.02234350905431521</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1714325210.818192</v>
+        <v>1726747758.761344</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1633941758750395</v>
+        <v>0.09937392867986475</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04864259196986502</v>
+        <v>0.05569339769718629</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4115797759.080478</v>
+        <v>3652663887.438757</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1191164197178546</v>
+        <v>0.1633179576229359</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02682128204009129</v>
+        <v>0.02173139062142524</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1402702160.410652</v>
+        <v>1693180111.907302</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1620593420863378</v>
+        <v>0.1681045768600785</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03630677328100131</v>
+        <v>0.0392921204602788</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5320822069.100958</v>
+        <v>4325003911.182975</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09802884473093963</v>
+        <v>0.1059034590915323</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04483596994728688</v>
+        <v>0.04882582433076176</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2726356134.054757</v>
+        <v>2505726235.53703</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1837444110642298</v>
+        <v>0.1906292815756889</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02061221136469428</v>
+        <v>0.02043188502215898</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2605072425.550762</v>
+        <v>2714135138.445725</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1527077583075711</v>
+        <v>0.1610786004955069</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0206310835262031</v>
+        <v>0.03213548901237009</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1843710231.518654</v>
+        <v>1419231690.532949</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1374284442459726</v>
+        <v>0.1942774974428672</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04401927589649483</v>
+        <v>0.04372444241757611</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5533269311.184115</v>
+        <v>3426816978.237682</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06695554939086142</v>
+        <v>0.08814624034873089</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03852476624612464</v>
+        <v>0.04542358769210481</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4671459141.689787</v>
+        <v>3451846195.83052</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1842397909307698</v>
+        <v>0.1287617469298127</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03379596185143666</v>
+        <v>0.02870495000339491</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4007687449.554812</v>
+        <v>4093190735.449747</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1333337761818719</v>
+        <v>0.1622267795693635</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0270934886780982</v>
+        <v>0.024521158336201</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4935547309.084095</v>
+        <v>5038953080.192789</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1231478181341662</v>
+        <v>0.1083885996100503</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04856132410475281</v>
+        <v>0.04642741326607139</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3048238805.760633</v>
+        <v>3007407269.758804</v>
       </c>
       <c r="F67" t="n">
-        <v>0.103005290039978</v>
+        <v>0.08461933572441567</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04601121027357413</v>
+        <v>0.03613433139330348</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5053653853.766796</v>
+        <v>5937935412.232254</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1401234409411197</v>
+        <v>0.1249164007398425</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03575461153510336</v>
+        <v>0.04778739942061085</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1996851391.690183</v>
+        <v>1509891234.352894</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1319760502399525</v>
+        <v>0.1625112008813162</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05521607368354891</v>
+        <v>0.03762857039952062</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2701075131.767834</v>
+        <v>2658201794.898018</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1009416703068756</v>
+        <v>0.07167746104071462</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04809200356937671</v>
+        <v>0.04265472268015819</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4619754103.0456</v>
+        <v>4412675433.875574</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1610105056672229</v>
+        <v>0.1337149579828863</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02325427243658061</v>
+        <v>0.02084322387810583</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1660648829.317778</v>
+        <v>1959155733.567105</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1028658748175235</v>
+        <v>0.0800935491594513</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04972786467692825</v>
+        <v>0.03953350622599042</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2729869157.903607</v>
+        <v>2885742824.708491</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09272267084987945</v>
+        <v>0.1093795025174026</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04459274612394706</v>
+        <v>0.04205632946729587</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3843260976.813349</v>
+        <v>3604408555.620216</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1673409235024787</v>
+        <v>0.1678356702606069</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02687541108489763</v>
+        <v>0.0287231553009161</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2334830974.157684</v>
+        <v>2233743179.565407</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1345370595582377</v>
+        <v>0.1306973354115985</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02794771874264189</v>
+        <v>0.03368469228867974</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3638168642.304127</v>
+        <v>3789403501.265303</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1007329512758088</v>
+        <v>0.07996208288354939</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03263738277056222</v>
+        <v>0.03374615587571214</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1706371619.937303</v>
+        <v>1423236680.171077</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1764393484821009</v>
+        <v>0.1213851011662247</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02484468143795156</v>
+        <v>0.02825147078442167</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4761436473.78793</v>
+        <v>4019306301.659909</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1293203767565217</v>
+        <v>0.09028612235962505</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04901214165000838</v>
+        <v>0.03829496882294639</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1230183782.385695</v>
+        <v>1382358423.257118</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1536018693257663</v>
+        <v>0.1460054496215508</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03999621227592378</v>
+        <v>0.02480808742807204</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4935730123.657799</v>
+        <v>3957026842.443038</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09627658082397758</v>
+        <v>0.09288110179955682</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03679402674332445</v>
+        <v>0.03294131064299731</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3228357301.30293</v>
+        <v>3529195813.148427</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1244756865559491</v>
+        <v>0.1244673564822263</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03187842172568155</v>
+        <v>0.02600647557841373</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4378879280.359097</v>
+        <v>4884014860.257877</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1623884191888368</v>
+        <v>0.1836765359700005</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01968784633882069</v>
+        <v>0.02770418787436314</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2367630006.1983</v>
+        <v>1767867110.626075</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1058754560102677</v>
+        <v>0.1081683600676477</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03096901637510805</v>
+        <v>0.03241099393990333</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1732961548.269597</v>
+        <v>2300868760.535473</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09217459676178702</v>
+        <v>0.1132589476522372</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03543950858772425</v>
+        <v>0.03402945482866519</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3421659483.79922</v>
+        <v>3448503110.187717</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1467632567330882</v>
+        <v>0.1650347053905108</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05623002690951242</v>
+        <v>0.05360356510433409</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2341246403.986705</v>
+        <v>2691028757.345743</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1064151441862882</v>
+        <v>0.1699790612552275</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01721783637286546</v>
+        <v>0.02568790525459726</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1305291453.000251</v>
+        <v>1508972927.70939</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1802267699068376</v>
+        <v>0.1821216537247516</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03909897986726042</v>
+        <v>0.03283893169364158</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2936836466.189909</v>
+        <v>2738886754.292408</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1778175313312027</v>
+        <v>0.1506971697482335</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0297013556474263</v>
+        <v>0.02913838692037123</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2954185109.795111</v>
+        <v>3072091212.477222</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1123009816862136</v>
+        <v>0.1065094944454035</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03090480007107459</v>
+        <v>0.02640283641384632</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1893333520.83471</v>
+        <v>2079826401.46094</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1044390614413662</v>
+        <v>0.1277161697830578</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04172056551910614</v>
+        <v>0.03491092761088465</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1736003584.585506</v>
+        <v>1873910779.761943</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1509907621945979</v>
+        <v>0.1653796096253493</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03736892230585303</v>
+        <v>0.04760763738037341</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2619665739.524072</v>
+        <v>2797819484.365583</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08282893800236295</v>
+        <v>0.09339208464304334</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03436880537656165</v>
+        <v>0.03798993486965199</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5013449707.203474</v>
+        <v>3593923512.414362</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09710347523055561</v>
+        <v>0.09855394752217467</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04979822460510514</v>
+        <v>0.03301383517162185</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2357318972.243796</v>
+        <v>1557163912.883434</v>
       </c>
       <c r="F94" t="n">
-        <v>0.167142660424662</v>
+        <v>0.1297537028615411</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03251709136963035</v>
+        <v>0.0403594809208479</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2447981818.595703</v>
+        <v>2032262036.520307</v>
       </c>
       <c r="F95" t="n">
-        <v>0.106497701838224</v>
+        <v>0.1013928966680618</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0403377207236713</v>
+        <v>0.05100208983959829</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1979405982.64382</v>
+        <v>2348362966.395441</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1202593685053708</v>
+        <v>0.1393921363286435</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03023174883274961</v>
+        <v>0.03628174663109555</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4490282784.012061</v>
+        <v>4253701912.968939</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1426405562034331</v>
+        <v>0.1244977071008558</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02239838833223535</v>
+        <v>0.02779917528755257</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2886002557.749313</v>
+        <v>2441616169.518661</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1177535141258136</v>
+        <v>0.1209873259722568</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03250415035244961</v>
+        <v>0.02956382869431223</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2430528469.658352</v>
+        <v>2067030090.881055</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1038459294748205</v>
+        <v>0.1091848719613191</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02164840236371516</v>
+        <v>0.03380083508650465</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4674303786.233397</v>
+        <v>3252875066.119469</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1404395868608009</v>
+        <v>0.1706834226883968</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0254311941646449</v>
+        <v>0.02626334866083478</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2671407238.493161</v>
+        <v>2580512825.705942</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1668611765705708</v>
+        <v>0.2021731989049811</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05188917327694416</v>
+        <v>0.04840620998503675</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_261.xlsx
+++ b/output/fit_clients/fit_round_261.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2371774638.021445</v>
+        <v>2366678351.100856</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07232754510464384</v>
+        <v>0.1120514116360716</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03690923499015893</v>
+        <v>0.03591000507803306</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2412525289.518943</v>
+        <v>2078362612.343207</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1710315946179858</v>
+        <v>0.1679215754319342</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03985162752072065</v>
+        <v>0.04613856760095117</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4208111698.991456</v>
+        <v>3795149678.157448</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1190731431971723</v>
+        <v>0.1094029754605222</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03081858876113476</v>
+        <v>0.02880537885558164</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>140</v>
+      </c>
+      <c r="J4" t="n">
+        <v>261</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4221173192.357876</v>
+        <v>2830342415.534842</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0988240973761518</v>
+        <v>0.1072638797271831</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04266336052608095</v>
+        <v>0.04208274354162998</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>108</v>
+      </c>
+      <c r="J5" t="n">
+        <v>259</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2297865947.830363</v>
+        <v>2329421754.147821</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1139838194804902</v>
+        <v>0.094884624693271</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03509361363729788</v>
+        <v>0.05037687155800686</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2056631162.50795</v>
+        <v>2693820481.357102</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09793499176940877</v>
+        <v>0.07303847575022064</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03384940670897103</v>
+        <v>0.0440010766537985</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2547637246.155829</v>
+        <v>2770626575.873962</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2188358109499179</v>
+        <v>0.1727236053268097</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02754144349672956</v>
+        <v>0.02814407248673847</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>69</v>
+      </c>
+      <c r="J8" t="n">
+        <v>255</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1788176257.801696</v>
+        <v>2138209410.588943</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1448594854489565</v>
+        <v>0.164505030633965</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02501642315339773</v>
+        <v>0.02784641128221739</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3740393092.827063</v>
+        <v>4105230911.144605</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1889110774761407</v>
+        <v>0.1414330969084139</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03938381008965196</v>
+        <v>0.05369045742226336</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>236</v>
+      </c>
+      <c r="J10" t="n">
+        <v>261</v>
+      </c>
+      <c r="K10" t="n">
+        <v>103.3257756834682</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3400178251.648139</v>
+        <v>3682850354.131306</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1553679408681652</v>
+        <v>0.1768524118456059</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04131807792033779</v>
+        <v>0.04211937832451698</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>106</v>
+      </c>
+      <c r="J11" t="n">
+        <v>260</v>
+      </c>
+      <c r="K11" t="n">
+        <v>87.50214706934351</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3317379234.083864</v>
+        <v>3146218363.465106</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1526342416730823</v>
+        <v>0.1369717279899024</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03446982928641214</v>
+        <v>0.03691992498822452</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5217721923.609971</v>
+        <v>5016930040.798053</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07008633454264465</v>
+        <v>0.06460558349141239</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02617705733551071</v>
+        <v>0.02724626679725824</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>132</v>
+      </c>
+      <c r="J13" t="n">
+        <v>261</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -822,16 +925,25 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2746387941.431693</v>
+        <v>2575757527.738973</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1240266555087988</v>
+        <v>0.1825946656356056</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04305024529184413</v>
+        <v>0.04429500012344653</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>52</v>
+      </c>
+      <c r="J14" t="n">
+        <v>260</v>
+      </c>
+      <c r="K14" t="n">
+        <v>42.43749590080726</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1131814320.068835</v>
+        <v>1158769281.512098</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0971088209728817</v>
+        <v>0.09795175522813433</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03153696236784205</v>
+        <v>0.0380222492012782</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2269238734.527586</v>
+        <v>2232526328.596964</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1096720506350608</v>
+        <v>0.07597278711113704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03315845392799442</v>
+        <v>0.0486677565315245</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1032,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3998819850.262668</v>
+        <v>5019881039.282182</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1429816626747565</v>
+        <v>0.1610339435838978</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04252764390694581</v>
+        <v>0.0452553202179595</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>125</v>
+      </c>
+      <c r="J17" t="n">
+        <v>260</v>
+      </c>
+      <c r="K17" t="n">
+        <v>92.16326687607295</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1069,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2763430446.978999</v>
+        <v>3691663325.773825</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1800983779489742</v>
+        <v>0.1555825642086995</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02698250082954252</v>
+        <v>0.02323450819893495</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>64</v>
+      </c>
+      <c r="J18" t="n">
+        <v>261</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1350449991.496671</v>
+        <v>926728270.8270035</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1345019719692203</v>
+        <v>0.1828506781992178</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0250474811793172</v>
+        <v>0.02236964240581245</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1943169082.411285</v>
+        <v>2358099319.627538</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1034297448179144</v>
+        <v>0.1267978961732584</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03082272947862021</v>
+        <v>0.0253885973804498</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2604313356.671618</v>
+        <v>2303426953.154151</v>
       </c>
       <c r="F21" t="n">
-        <v>0.096735076707988</v>
+        <v>0.09836861929627222</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04113600553084918</v>
+        <v>0.04231971633031216</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1203,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3503063699.182331</v>
+        <v>3200367439.382299</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1289101052851382</v>
+        <v>0.1025622418604091</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05246887301942657</v>
+        <v>0.05561223962208192</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>68</v>
+      </c>
+      <c r="J22" t="n">
+        <v>260</v>
+      </c>
+      <c r="K22" t="n">
+        <v>57.00726373479262</v>
       </c>
     </row>
     <row r="23">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1331328541.635777</v>
+        <v>1366766213.626147</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1806555316061857</v>
+        <v>0.1529188142552256</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04469767880801608</v>
+        <v>0.0485381153646124</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3676343431.181355</v>
+        <v>2774353763.927533</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1109394175405992</v>
+        <v>0.1007299818836892</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03588208403715357</v>
+        <v>0.02439049110067145</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>78</v>
+      </c>
+      <c r="J24" t="n">
+        <v>259</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1061930862.906331</v>
+        <v>1348830244.646344</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0913418263338957</v>
+        <v>0.08446958356246961</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02332724754192972</v>
+        <v>0.02503152307788233</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1000428043.547077</v>
+        <v>1132100399.625859</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1030264992247929</v>
+        <v>0.1209298245443726</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03159606054178518</v>
+        <v>0.03756787969713977</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4180140357.293613</v>
+        <v>4239167981.201805</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1477028456638113</v>
+        <v>0.1243870948514582</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0168120924452232</v>
+        <v>0.02668813570128054</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>106</v>
+      </c>
+      <c r="J27" t="n">
+        <v>261</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3791213053.602157</v>
+        <v>3599788886.061537</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09834721666921899</v>
+        <v>0.1305905692909559</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04542691654077861</v>
+        <v>0.04290336352852887</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>52</v>
+      </c>
+      <c r="J28" t="n">
+        <v>261</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4203267331.727483</v>
+        <v>5179359357.00539</v>
       </c>
       <c r="F29" t="n">
-        <v>0.140866231874726</v>
+        <v>0.1464171123051722</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04398410600784738</v>
+        <v>0.03245675762979844</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>249</v>
+      </c>
+      <c r="J29" t="n">
+        <v>261</v>
+      </c>
+      <c r="K29" t="n">
+        <v>103.336061332023</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1576799501.238552</v>
+        <v>1573416278.391026</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09404130165769459</v>
+        <v>0.1094227311378563</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03172340692375792</v>
+        <v>0.03725723766967974</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1366994755.714345</v>
+        <v>1108330405.63029</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1100349416450308</v>
+        <v>0.08231046094191879</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04625452520848593</v>
+        <v>0.03822654396460749</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1871050781.831583</v>
+        <v>1682878979.596652</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1061731856163487</v>
+        <v>0.1106930924892498</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02498920822341082</v>
+        <v>0.02894891060021391</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2397459814.718267</v>
+        <v>3077190221.430573</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1862891002136401</v>
+        <v>0.1623295134236383</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0507042796331713</v>
+        <v>0.05754328429105283</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1203868762.706621</v>
+        <v>1375157858.864706</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1017176304394361</v>
+        <v>0.1200384578019141</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01765860607674072</v>
+        <v>0.02477232559430875</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1668,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>932924483.1927844</v>
+        <v>1257081602.120466</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07766901675175089</v>
+        <v>0.09888928875531539</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03398740217531511</v>
+        <v>0.04052013904351246</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1703,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2981725566.558701</v>
+        <v>3176179405.148368</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1138762224085547</v>
+        <v>0.1730180996926085</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01988607397314144</v>
+        <v>0.02253629688879027</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2672358492.709837</v>
+        <v>2515756298.988817</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09400443649523774</v>
+        <v>0.08668961604155778</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02969886344165363</v>
+        <v>0.03331185490728129</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1754090448.16176</v>
+        <v>1567930480.028987</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1117565927290852</v>
+        <v>0.1116329406157949</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0278565596752306</v>
+        <v>0.03196252414235586</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1808,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1667758593.191967</v>
+        <v>1585514075.395178</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1747952783478906</v>
+        <v>0.1940080747273461</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02947355622765011</v>
+        <v>0.03006019720768126</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1843,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1108092983.019662</v>
+        <v>1681402714.95921</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1094638004034731</v>
+        <v>0.1590947996726872</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05032284873661003</v>
+        <v>0.05881495729387882</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1878,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1782467328.42446</v>
+        <v>2929295487.096845</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1393399922988428</v>
+        <v>0.1206971314150184</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02956507826269223</v>
+        <v>0.04120120788339644</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3036687926.097808</v>
+        <v>4136829621.13463</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1028215062721697</v>
+        <v>0.110434443176969</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04455549439455846</v>
+        <v>0.03614724060589573</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>108</v>
+      </c>
+      <c r="J42" t="n">
+        <v>261</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2253369173.447757</v>
+        <v>1963998514.01673</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1900611271031626</v>
+        <v>0.1363473366712648</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01834366460075314</v>
+        <v>0.02579351381309658</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1913875046.353441</v>
+        <v>2064264006.352431</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08440622810833594</v>
+        <v>0.09680956033004932</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02606386156497871</v>
+        <v>0.03344860991450236</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2018,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2196600022.775909</v>
+        <v>1595958367.070108</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1189865789166671</v>
+        <v>0.162258484465117</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0515950371778203</v>
+        <v>0.04262704493691429</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5186736031.737995</v>
+        <v>5605647828.488448</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1582101858312341</v>
+        <v>0.1235115724973178</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05932877813858155</v>
+        <v>0.04734717085536629</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>151</v>
+      </c>
+      <c r="J46" t="n">
+        <v>261</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2082,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4674379925.083158</v>
+        <v>4110566162.553585</v>
       </c>
       <c r="F47" t="n">
-        <v>0.176960332214594</v>
+        <v>0.1789916395143397</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05202938092283185</v>
+        <v>0.05204107117509288</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>118</v>
+      </c>
+      <c r="J47" t="n">
+        <v>260</v>
+      </c>
+      <c r="K47" t="n">
+        <v>80.25128408157059</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4340928847.47958</v>
+        <v>4501720831.636241</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08499954849753351</v>
+        <v>0.07226445907275353</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0290318670946196</v>
+        <v>0.02632359012435137</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>128</v>
+      </c>
+      <c r="J48" t="n">
+        <v>261</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1356211351.269477</v>
+        <v>1810404509.536072</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1623990779151115</v>
+        <v>0.1192140797341227</v>
       </c>
       <c r="G49" t="n">
-        <v>0.028101215085391</v>
+        <v>0.03989166805954854</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2896967881.15412</v>
+        <v>2591338733.674176</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1380137748102193</v>
+        <v>0.151649132363788</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05349255226986371</v>
+        <v>0.03532241704978913</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>83</v>
+      </c>
+      <c r="J50" t="n">
+        <v>254</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1374206211.101929</v>
+        <v>1266429741.587962</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1336235651487161</v>
+        <v>0.1753813664564928</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04635660165647303</v>
+        <v>0.05213920101184546</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5055734641.92628</v>
+        <v>5140966290.976688</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1099482593150822</v>
+        <v>0.09793846439232791</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05196107208431046</v>
+        <v>0.0377742190938913</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>166</v>
+      </c>
+      <c r="J52" t="n">
+        <v>261</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2294,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3048937233.871764</v>
+        <v>3002800140.087477</v>
       </c>
       <c r="F53" t="n">
-        <v>0.151582657802089</v>
+        <v>0.1260611250301449</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03532481048463185</v>
+        <v>0.0298311342042487</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>36</v>
+      </c>
+      <c r="J53" t="n">
+        <v>259</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2329,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4401985960.655725</v>
+        <v>4429009287.20853</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1178665345774799</v>
+        <v>0.1695739019393568</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04756926612961705</v>
+        <v>0.04634141218645445</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>138</v>
+      </c>
+      <c r="J54" t="n">
+        <v>261</v>
+      </c>
+      <c r="K54" t="n">
+        <v>98.72053721531529</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3214517164.149526</v>
+        <v>4879964729.900461</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1623388180561641</v>
+        <v>0.2153321081189851</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02234350905431521</v>
+        <v>0.02966067330996311</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>116</v>
+      </c>
+      <c r="J55" t="n">
+        <v>261</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1726747758.761344</v>
+        <v>1673745130.225735</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09937392867986475</v>
+        <v>0.1297337789108724</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05569339769718629</v>
+        <v>0.04471496671345031</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2442,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3652663887.438757</v>
+        <v>4128100676.350553</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1633179576229359</v>
+        <v>0.1122867273266717</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02173139062142524</v>
+        <v>0.01903138598548395</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>105</v>
+      </c>
+      <c r="J57" t="n">
+        <v>260</v>
+      </c>
+      <c r="K57" t="n">
+        <v>97.81485901481564</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1693180111.907302</v>
+        <v>1206166118.675617</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1681045768600785</v>
+        <v>0.1314792926936144</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0392921204602788</v>
+        <v>0.03656879263664384</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4325003911.182975</v>
+        <v>3782463222.134134</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1059034590915323</v>
+        <v>0.1230708231558471</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04882582433076176</v>
+        <v>0.04011724902147938</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>126</v>
+      </c>
+      <c r="J59" t="n">
+        <v>260</v>
+      </c>
+      <c r="K59" t="n">
+        <v>77.72917958401776</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2545,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2505726235.53703</v>
+        <v>3485913187.151665</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1906292815756889</v>
+        <v>0.1488718833483862</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02043188502215898</v>
+        <v>0.03319653610610683</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>38</v>
+      </c>
+      <c r="J60" t="n">
+        <v>260</v>
+      </c>
+      <c r="K60" t="n">
+        <v>80.15755759035382</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2714135138.445725</v>
+        <v>3197997537.326724</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1610786004955069</v>
+        <v>0.1169567173869004</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03213548901237009</v>
+        <v>0.02164015251793577</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>8</v>
+      </c>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1419231690.532949</v>
+        <v>1629194617.412783</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1942774974428672</v>
+        <v>0.178810313990129</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04372444241757611</v>
+        <v>0.04015305042340402</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3426816978.237682</v>
+        <v>4372294314.235267</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08814624034873089</v>
+        <v>0.1004058207836792</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04542358769210481</v>
+        <v>0.04521622283492516</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>127</v>
+      </c>
+      <c r="J63" t="n">
+        <v>261</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3451846195.83052</v>
+        <v>4917507747.779685</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1287617469298127</v>
+        <v>0.1787906209568466</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02870495000339491</v>
+        <v>0.03111299519931026</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>128</v>
+      </c>
+      <c r="J64" t="n">
+        <v>261</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4093190735.449747</v>
+        <v>5946712879.203914</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1622267795693635</v>
+        <v>0.1211604140898474</v>
       </c>
       <c r="G65" t="n">
-        <v>0.024521158336201</v>
+        <v>0.02879564961974039</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>209</v>
+      </c>
+      <c r="J65" t="n">
+        <v>261</v>
+      </c>
+      <c r="K65" t="n">
+        <v>98.8282649617522</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5038953080.192789</v>
+        <v>3857812042.436698</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1083885996100503</v>
+        <v>0.1084986076872212</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04642741326607139</v>
+        <v>0.03641554722418911</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>129</v>
+      </c>
+      <c r="J66" t="n">
+        <v>260</v>
+      </c>
+      <c r="K66" t="n">
+        <v>78.58514373216953</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3007407269.758804</v>
+        <v>2277423634.643724</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08461933572441567</v>
+        <v>0.09659210307811805</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03613433139330348</v>
+        <v>0.04577991963922241</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5937935412.232254</v>
+        <v>5330048025.127714</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1249164007398425</v>
+        <v>0.1592681424093033</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04778739942061085</v>
+        <v>0.03175818700026652</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>133</v>
+      </c>
+      <c r="J68" t="n">
+        <v>260</v>
+      </c>
+      <c r="K68" t="n">
+        <v>98.07448374200381</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1509891234.352894</v>
+        <v>2243848143.60261</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1625112008813162</v>
+        <v>0.1253842571509493</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03762857039952062</v>
+        <v>0.05140303978872318</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2658201794.898018</v>
+        <v>2521407924.900389</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07167746104071462</v>
+        <v>0.08759088358001312</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04265472268015819</v>
+        <v>0.04757834002959935</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4412675433.875574</v>
+        <v>4878348230.330592</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1337149579828863</v>
+        <v>0.1643344893877718</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02084322387810583</v>
+        <v>0.03258917051629454</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>197</v>
+      </c>
+      <c r="J71" t="n">
+        <v>261</v>
+      </c>
+      <c r="K71" t="n">
+        <v>100.8966877176529</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1959155733.567105</v>
+        <v>1697202689.213001</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0800935491594513</v>
+        <v>0.07084820754940331</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03953350622599042</v>
+        <v>0.05334810537821208</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2885742824.708491</v>
+        <v>3317273981.589505</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1093795025174026</v>
+        <v>0.09688905007034887</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04205632946729587</v>
+        <v>0.05061055130640587</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>16</v>
+      </c>
+      <c r="J73" t="n">
+        <v>252</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3604408555.620216</v>
+        <v>3297607087.804742</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1678356702606069</v>
+        <v>0.183733536896165</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0287231553009161</v>
+        <v>0.0280733946177504</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>73</v>
+      </c>
+      <c r="J74" t="n">
+        <v>254</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2233743179.565407</v>
+        <v>2262233899.711711</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1306973354115985</v>
+        <v>0.1363347576031511</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03368469228867974</v>
+        <v>0.02972705548233849</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3121,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3789403501.265303</v>
+        <v>4119182486.69916</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07996208288354939</v>
+        <v>0.1009700833857571</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03374615587571214</v>
+        <v>0.0340514425366654</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>122</v>
+      </c>
+      <c r="J76" t="n">
+        <v>260</v>
+      </c>
+      <c r="K76" t="n">
+        <v>88.34545931399292</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1423236680.171077</v>
+        <v>1599078809.396085</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1213851011662247</v>
+        <v>0.1575910178828236</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02825147078442167</v>
+        <v>0.0274137671197365</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3193,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4019306301.659909</v>
+        <v>3414485058.884474</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09028612235962505</v>
+        <v>0.1176853912165792</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03829496882294639</v>
+        <v>0.03782105896907761</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>131</v>
+      </c>
+      <c r="J78" t="n">
+        <v>260</v>
+      </c>
+      <c r="K78" t="n">
+        <v>67.74726183493489</v>
       </c>
     </row>
     <row r="79">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1382358423.257118</v>
+        <v>1422678672.323398</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1460054496215508</v>
+        <v>0.1641492976969592</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02480808742807204</v>
+        <v>0.03121110175692496</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3957026842.443038</v>
+        <v>3878377308.953434</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09288110179955682</v>
+        <v>0.1107553968156578</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03294131064299731</v>
+        <v>0.02692446768095039</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>127</v>
+      </c>
+      <c r="J80" t="n">
+        <v>261</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3529195813.148427</v>
+        <v>5198627048.650331</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1244673564822263</v>
+        <v>0.08452297901946848</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02600647557841373</v>
+        <v>0.02776050355062033</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>119</v>
+      </c>
+      <c r="J81" t="n">
+        <v>261</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4884014860.257877</v>
+        <v>4392028516.191306</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1836765359700005</v>
+        <v>0.1834858285402691</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02770418787436314</v>
+        <v>0.02548203628365691</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>196</v>
+      </c>
+      <c r="J82" t="n">
+        <v>261</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1767867110.626075</v>
+        <v>2351909639.200061</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1081683600676477</v>
+        <v>0.1118655947661102</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03241099393990333</v>
+        <v>0.03517645103892134</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2300868760.535473</v>
+        <v>2564607875.083025</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1132589476522372</v>
+        <v>0.07706748177229023</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03402945482866519</v>
+        <v>0.05001263171614345</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3440,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3448503110.187717</v>
+        <v>3049228294.607368</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1650347053905108</v>
+        <v>0.169830861937725</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05360356510433409</v>
+        <v>0.048076279104682</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>36</v>
+      </c>
+      <c r="J85" t="n">
+        <v>251</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2691028757.345743</v>
+        <v>1900846127.936269</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1699790612552275</v>
+        <v>0.1560077394794377</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02568790525459726</v>
+        <v>0.0243570531569113</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1508972927.70939</v>
+        <v>1300401133.29898</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1821216537247516</v>
+        <v>0.190158942852926</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03283893169364158</v>
+        <v>0.03910791244733904</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2738886754.292408</v>
+        <v>2842748775.388819</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1506971697482335</v>
+        <v>0.1398080771236212</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02913838692037123</v>
+        <v>0.02966889369826848</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>38</v>
+      </c>
+      <c r="J88" t="n">
+        <v>255</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3072091212.477222</v>
+        <v>3031674157.621021</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1065094944454035</v>
+        <v>0.1349772185394779</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02640283641384632</v>
+        <v>0.02720374791417594</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>20</v>
+      </c>
+      <c r="J89" t="n">
+        <v>258</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2079826401.46094</v>
+        <v>1674731649.254017</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1277161697830578</v>
+        <v>0.1381263332169621</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03491092761088465</v>
+        <v>0.03983893860428053</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1873910779.761943</v>
+        <v>1473154742.078568</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1653796096253493</v>
+        <v>0.1838652637676449</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04760763738037341</v>
+        <v>0.04644634697347962</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3685,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2797819484.365583</v>
+        <v>2997930155.611238</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09339208464304334</v>
+        <v>0.07364481393771988</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03798993486965199</v>
+        <v>0.04529902018687273</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3593923512.414362</v>
+        <v>3569589324.459079</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09855394752217467</v>
+        <v>0.1226823110710852</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03301383517162185</v>
+        <v>0.05333362672291501</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>114</v>
+      </c>
+      <c r="J93" t="n">
+        <v>257</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1557163912.883434</v>
+        <v>1902328223.535006</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1297537028615411</v>
+        <v>0.1507096028330801</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0403594809208479</v>
+        <v>0.04157840441520393</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2032262036.520307</v>
+        <v>2997512831.149534</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1013928966680618</v>
+        <v>0.08657152488865098</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05100208983959829</v>
+        <v>0.04554129642585398</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2348362966.395441</v>
+        <v>1462936214.745645</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1393921363286435</v>
+        <v>0.129506765272761</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03628174663109555</v>
+        <v>0.03461761154575389</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4253701912.968939</v>
+        <v>3966987662.254135</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1244977071008558</v>
+        <v>0.1431516485217949</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02779917528755257</v>
+        <v>0.02819199468975685</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>129</v>
+      </c>
+      <c r="J97" t="n">
+        <v>260</v>
+      </c>
+      <c r="K97" t="n">
+        <v>90.946473887077</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2441616169.518661</v>
+        <v>3800491426.390711</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1209873259722568</v>
+        <v>0.129695383023107</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02956382869431223</v>
+        <v>0.02295421767143953</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>64</v>
+      </c>
+      <c r="J98" t="n">
+        <v>260</v>
+      </c>
+      <c r="K98" t="n">
+        <v>80.13468942747983</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2067030090.881055</v>
+        <v>2114775979.709591</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1091848719613191</v>
+        <v>0.09031451841585265</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03380083508650465</v>
+        <v>0.03122518854745243</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>4</v>
+      </c>
+      <c r="J99" t="n">
+        <v>252</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3252875066.119469</v>
+        <v>4116658455.683255</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1706834226883968</v>
+        <v>0.1714891568071392</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02626334866083478</v>
+        <v>0.02729530647395961</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>110</v>
+      </c>
+      <c r="J100" t="n">
+        <v>260</v>
+      </c>
+      <c r="K100" t="n">
+        <v>97.07963878145483</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2580512825.705942</v>
+        <v>2832898381.552859</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2021731989049811</v>
+        <v>0.1840537391709305</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04840620998503675</v>
+        <v>0.05252005271469083</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>20</v>
+      </c>
+      <c r="J101" t="n">
+        <v>259</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
